--- a/SubRes_TMPL/SubRES_GreenExports.xlsx
+++ b/SubRes_TMPL/SubRES_GreenExports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\SubRes_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50507FC2-6A87-47C0-9697-4E535E882970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC122AB-60C1-438A-9D5A-9264869DC455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" firstSheet="3" activeTab="11" xr2:uid="{E4E4DEB2-CFB1-442C-9FC5-D51D154627BD}"/>
+    <workbookView xWindow="7065" yWindow="-18360" windowWidth="23460" windowHeight="14985" tabRatio="796" firstSheet="2" activeTab="6" xr2:uid="{E4E4DEB2-CFB1-442C-9FC5-D51D154627BD}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="330">
   <si>
     <t>Comment</t>
   </si>
@@ -760,9 +760,6 @@
     <t>Secondary Commodities</t>
   </si>
   <si>
-    <t>REGION1</t>
-  </si>
-  <si>
     <t>Commodity</t>
   </si>
   <si>
@@ -1025,12 +1022,6 @@
   </si>
   <si>
     <t>BIICS x2</t>
-  </si>
-  <si>
-    <t>Ammonia to Export Market</t>
-  </si>
-  <si>
-    <t>PEXNH3</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1327,9 +1318,6 @@
     <t>Exports</t>
   </si>
   <si>
-    <t>~FI_Comm</t>
-  </si>
-  <si>
     <t>TechName</t>
   </si>
   <si>
@@ -1426,7 +1414,16 @@
     <t>FX</t>
   </si>
   <si>
-    <t>~FI_Process</t>
+    <t>Green Ammonia</t>
+  </si>
+  <si>
+    <t>NH3G</t>
+  </si>
+  <si>
+    <t>PEXNH3G</t>
+  </si>
+  <si>
+    <t>Green Ammonia to Export Market</t>
   </si>
 </sst>
 </file>
@@ -1833,7 +1830,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1866,12 +1863,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2304,9 +2295,9 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2318,7 +2309,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2625,14 +2616,7 @@
     <xf numFmtId="1" fontId="24" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="48" fillId="7" borderId="0" xfId="27" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="0" xfId="27" applyFill="1"/>
-    <xf numFmtId="169" fontId="48" fillId="7" borderId="2" xfId="27" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2644,13 +2628,18 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="28" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="32" xfId="28" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="32" xfId="28" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="32" xfId="28" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="32" xfId="28" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="32" xfId="28" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="29"/>
+    <xf numFmtId="169" fontId="48" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="27" applyFill="1"/>
+    <xf numFmtId="169" fontId="48" fillId="0" borderId="2" xfId="27" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="20" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2891,59 +2880,7 @@
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX104.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX105.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX106.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX107.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX108.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX109.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX110.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX111.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX112.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX113.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX114.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX115.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX116.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
@@ -3628,828 +3565,6 @@
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1304925</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="113665" name="cmdTechNameAndDesc" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s113665"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000001BC0100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="113666" name="cmdCommIN" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s113666"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002BC0100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>619125</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="113667" name="cmdCommOUT" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s113667"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003BC0100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="113668" name="cmdAddParameter" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s113668"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004BC0100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="113669" name="cmdAddParamQualifier1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s113669"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005BC0100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="113670" name="cmdCheckTechDataSheet" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s113670"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006BC0100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="113672" name="cmdAddParamQualifier2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s113672"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008BC0100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="233473" name="cmdTechNameAndDesc" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s233473"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000001900300}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="233474" name="cmdCommIN" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s233474"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002900300}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="233475" name="cmdCommOUT" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s233475"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003900300}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>419100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="233476" name="cmdAddParameter" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s233476"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004900300}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="233477" name="cmdAddParamQualifier1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s233477"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005900300}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="233478" name="cmdCheckTechDataSheet" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s233478"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006900300}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="233479" name="cmdAddParamQualifier2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s233479"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000007900300}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
@@ -4541,7 +3656,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4585,7 +3700,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5054,7 +4169,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5291,7 +4406,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5876,7 +4991,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -6345,7 +5460,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -6930,7 +6045,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -7515,128 +6630,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>828675</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="63489" name="cmdCheckRegionsSheet" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s63489"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001F80000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="63490" name="cmdSpecifySets" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s63490"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002F80000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -8105,7 +7099,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -8690,6 +7684,127 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63489" name="cmdCheckRegionsSheet" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s63489"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001F80000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63490" name="cmdSpecifySets" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s63490"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002F80000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8883,185 +7998,6 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>1924050</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="125953" name="cmdSpecifySets" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s125953"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000001EC0100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>828675</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="125954" name="cmdCheckCommoditiesSheet" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s125954"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002EC0100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="125955" name="cmdCommUnit" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s125955"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003EC0100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1924050</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9227,7 +8163,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -9406,7 +8342,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -9701,182 +8637,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1924050</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="128001" name="cmdSpecifySets" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s128001"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000001F40100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>828675</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="128002" name="cmdCheckTechnologiesSheet" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s128002"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002F40100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="128003" name="cmdProcUnits" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s128003"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003F40100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -9928,6 +8690,417 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1304925</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="113665" name="cmdTechNameAndDesc" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s113665"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000001BC0100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="113666" name="cmdCommIN" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s113666"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002BC0100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>619125</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="113667" name="cmdCommOUT" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s113667"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003BC0100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="113668" name="cmdAddParameter" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s113668"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004BC0100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="113669" name="cmdAddParamQualifier1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s113669"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005BC0100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="113670" name="cmdCheckTechDataSheet" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s113670"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006BC0100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="113672" name="cmdAddParamQualifier2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s113672"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008BC0100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9947,13 +9120,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="206849" name="cmdTechNameAndDesc" hidden="1">
+            <xdr:cNvPr id="233473" name="cmdTechNameAndDesc" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s206849"/>
+                  <a14:compatExt spid="_x0000_s233473"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000001280300}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000001900300}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10005,13 +9178,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="206850" name="cmdCommIN" hidden="1">
+            <xdr:cNvPr id="233474" name="cmdCommIN" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s206850"/>
+                  <a14:compatExt spid="_x0000_s233474"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002280300}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002900300}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10063,13 +9236,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="206851" name="cmdCommOUT" hidden="1">
+            <xdr:cNvPr id="233475" name="cmdCommOUT" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s206851"/>
+                  <a14:compatExt spid="_x0000_s233475"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003280300}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003900300}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10121,13 +9294,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="206852" name="cmdAddParameter" hidden="1">
+            <xdr:cNvPr id="233476" name="cmdAddParameter" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s206852"/>
+                  <a14:compatExt spid="_x0000_s233476"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004280300}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004900300}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10179,13 +9352,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="206853" name="cmdAddParamQualifier1" hidden="1">
+            <xdr:cNvPr id="233477" name="cmdAddParamQualifier1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s206853"/>
+                  <a14:compatExt spid="_x0000_s233477"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005280300}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005900300}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10237,13 +9410,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="206854" name="cmdCheckTechDataSheet" hidden="1">
+            <xdr:cNvPr id="233478" name="cmdCheckTechDataSheet" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s206854"/>
+                  <a14:compatExt spid="_x0000_s233478"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006280300}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006900300}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10295,13 +9468,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="206855" name="cmdAddParamQualifier2" hidden="1">
+            <xdr:cNvPr id="233479" name="cmdAddParamQualifier2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s206855"/>
+                  <a14:compatExt spid="_x0000_s233479"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000007280300}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000007900300}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11284,7 +10457,7 @@
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11307,37 +10480,35 @@
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="174" t="s">
-        <v>330</v>
-      </c>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="175"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="176" t="s">
+      <c r="B7" s="189" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" s="189" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="189" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="189" t="s">
+        <v>297</v>
+      </c>
+      <c r="F7" s="189" t="s">
         <v>298</v>
       </c>
-      <c r="C7" s="176" t="s">
+      <c r="G7" s="189" t="s">
         <v>299</v>
       </c>
-      <c r="D7" s="176" t="s">
+      <c r="H7" s="189" t="s">
         <v>300</v>
-      </c>
-      <c r="E7" s="176" t="s">
-        <v>301</v>
-      </c>
-      <c r="F7" s="176" t="s">
-        <v>302</v>
-      </c>
-      <c r="G7" s="176" t="s">
-        <v>303</v>
-      </c>
-      <c r="H7" s="176" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11350,17 +10521,17 @@
         <f>RES!Y13</f>
         <v>Export PGMs - Pt</v>
       </c>
-      <c r="D8" s="177" t="s">
+      <c r="D8" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="177" t="s">
-        <v>305</v>
-      </c>
-      <c r="F8" s="177" t="s">
+      <c r="E8" s="174" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="177" t="s">
-        <v>310</v>
+      <c r="G8" s="174" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11373,59 +10544,59 @@
         <f>RES!Y18</f>
         <v>Export PGMs - Others</v>
       </c>
-      <c r="D9" s="177" t="s">
+      <c r="D9" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="177" t="s">
-        <v>305</v>
-      </c>
-      <c r="F9" s="177" t="s">
+      <c r="E9" s="174" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="177" t="s">
-        <v>310</v>
+      <c r="G9" s="174" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="41"/>
       <c r="B10" s="38" t="s">
-        <v>210</v>
+        <v>328</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="177" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="177" t="s">
-        <v>305</v>
-      </c>
-      <c r="F10" s="177" t="s">
+      <c r="E10" s="174" t="s">
+        <v>301</v>
+      </c>
+      <c r="F10" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="177" t="s">
-        <v>310</v>
+      <c r="G10" s="174" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="41"/>
       <c r="B11" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="177" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="177" t="s">
-        <v>305</v>
-      </c>
-      <c r="F11" s="177" t="s">
+      <c r="E11" s="174" t="s">
+        <v>301</v>
+      </c>
+      <c r="F11" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="177" t="s">
-        <v>310</v>
+      <c r="G11" s="174" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11438,17 +10609,17 @@
         <f>RES!Y23</f>
         <v>Exports of Green JetFuel</v>
       </c>
-      <c r="D12" s="177" t="s">
+      <c r="D12" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="177" t="s">
-        <v>305</v>
-      </c>
-      <c r="F12" s="177" t="s">
+      <c r="E12" s="174" t="s">
+        <v>301</v>
+      </c>
+      <c r="F12" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="177" t="s">
-        <v>310</v>
+      <c r="G12" s="174" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11461,17 +10632,17 @@
         <f>RES!Y29</f>
         <v>H2 PEM Electrolyser Stack Exports (GW)</v>
       </c>
-      <c r="D13" s="177" t="s">
+      <c r="D13" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="177" t="s">
-        <v>305</v>
-      </c>
-      <c r="F13" s="177" t="s">
+      <c r="E13" s="174" t="s">
+        <v>301</v>
+      </c>
+      <c r="F13" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="G13" s="177" t="s">
-        <v>310</v>
+      <c r="G13" s="174" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11484,17 +10655,17 @@
         <f>RES!Y33</f>
         <v>H2 PEM Fuel Cell Exports (GW)</v>
       </c>
-      <c r="D14" s="177" t="s">
+      <c r="D14" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="177" t="s">
-        <v>305</v>
-      </c>
-      <c r="F14" s="177" t="s">
+      <c r="E14" s="174" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="177" t="s">
-        <v>310</v>
+      <c r="G14" s="174" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11702,21 +10873,21 @@
     </row>
     <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="183"/>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="185"/>
-      <c r="J34" s="186"/>
-      <c r="K34" s="186"/>
-      <c r="L34" s="186"/>
-      <c r="M34" s="186"/>
-      <c r="N34" s="186"/>
-      <c r="O34" s="186"/>
-      <c r="P34" s="186"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="178"/>
+      <c r="D34" s="178"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
+      <c r="I34" s="180"/>
+      <c r="J34" s="181"/>
+      <c r="K34" s="181"/>
+      <c r="L34" s="181"/>
+      <c r="M34" s="181"/>
+      <c r="N34" s="181"/>
+      <c r="O34" s="181"/>
+      <c r="P34" s="181"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="42"/>
@@ -11736,21 +10907,21 @@
     </row>
     <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
-      <c r="B36" s="184"/>
-      <c r="C36" s="183"/>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="186"/>
-      <c r="K36" s="186"/>
-      <c r="L36" s="186"/>
-      <c r="M36" s="186"/>
-      <c r="N36" s="186"/>
-      <c r="O36" s="186"/>
-      <c r="P36" s="186"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="178"/>
+      <c r="D36" s="178"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="180"/>
+      <c r="J36" s="181"/>
+      <c r="K36" s="181"/>
+      <c r="L36" s="181"/>
+      <c r="M36" s="181"/>
+      <c r="N36" s="181"/>
+      <c r="O36" s="181"/>
+      <c r="P36" s="181"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="42"/>
@@ -11769,67 +10940,67 @@
       <c r="P37" s="38"/>
     </row>
     <row r="54" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="184"/>
-      <c r="C54" s="183"/>
-      <c r="D54" s="183"/>
-      <c r="E54" s="183"/>
-      <c r="F54" s="183"/>
-      <c r="G54" s="183"/>
-      <c r="H54" s="183"/>
-      <c r="I54" s="185"/>
-      <c r="J54" s="186"/>
-      <c r="K54" s="186"/>
-      <c r="L54" s="186"/>
-      <c r="M54" s="186"/>
-      <c r="N54" s="186"/>
-      <c r="O54" s="186"/>
-      <c r="P54" s="186"/>
+      <c r="B54" s="179"/>
+      <c r="C54" s="178"/>
+      <c r="D54" s="178"/>
+      <c r="E54" s="178"/>
+      <c r="F54" s="178"/>
+      <c r="G54" s="178"/>
+      <c r="H54" s="178"/>
+      <c r="I54" s="180"/>
+      <c r="J54" s="181"/>
+      <c r="K54" s="181"/>
+      <c r="L54" s="181"/>
+      <c r="M54" s="181"/>
+      <c r="N54" s="181"/>
+      <c r="O54" s="181"/>
+      <c r="P54" s="181"/>
     </row>
     <row r="55" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="187" t="s">
+      <c r="B55" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="187" t="s">
+      <c r="C55" s="182" t="s">
+        <v>309</v>
+      </c>
+      <c r="D55" s="182" t="s">
+        <v>310</v>
+      </c>
+      <c r="E55" s="182" t="s">
+        <v>311</v>
+      </c>
+      <c r="F55" s="182" t="s">
+        <v>312</v>
+      </c>
+      <c r="G55" s="182" t="s">
         <v>313</v>
       </c>
-      <c r="D55" s="187" t="s">
+      <c r="H55" s="183" t="s">
         <v>314</v>
       </c>
-      <c r="E55" s="187" t="s">
+      <c r="I55" s="184" t="s">
         <v>315</v>
       </c>
-      <c r="F55" s="187" t="s">
+      <c r="J55" s="184" t="s">
         <v>316</v>
       </c>
-      <c r="G55" s="187" t="s">
+      <c r="K55" s="184" t="s">
         <v>317</v>
       </c>
-      <c r="H55" s="188" t="s">
+      <c r="L55" s="184" t="s">
         <v>318</v>
       </c>
-      <c r="I55" s="189" t="s">
+      <c r="M55" s="184" t="s">
         <v>319</v>
       </c>
-      <c r="J55" s="189" t="s">
+      <c r="N55" s="184" t="s">
         <v>320</v>
       </c>
-      <c r="K55" s="189" t="s">
+      <c r="O55" s="184" t="s">
         <v>321</v>
       </c>
-      <c r="L55" s="189" t="s">
+      <c r="P55" s="184" t="s">
         <v>322</v>
-      </c>
-      <c r="M55" s="189" t="s">
-        <v>323</v>
-      </c>
-      <c r="N55" s="189" t="s">
-        <v>324</v>
-      </c>
-      <c r="O55" s="189" t="s">
-        <v>325</v>
-      </c>
-      <c r="P55" s="189" t="s">
-        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -11838,83 +11009,6 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="128003" r:id="rId4" name="cmdProcUnits">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="128003" r:id="rId4" name="cmdProcUnits"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="128002" r:id="rId6" name="cmdCheckTechnologiesSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="128002" r:id="rId6" name="cmdCheckTechnologiesSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
 </worksheet>
 </file>
 
@@ -11923,10 +11017,10 @@
   <sheetPr codeName="Sheet31">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:AA41"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11938,34 +11032,21 @@
     <col min="5" max="5" width="12.28515625" style="12" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="12" customWidth="1"/>
     <col min="7" max="8" width="10.42578125" style="35" customWidth="1"/>
-    <col min="9" max="15" width="9.140625" style="12"/>
-    <col min="16" max="17" width="11.42578125" style="12" customWidth="1"/>
-    <col min="18" max="21" width="10.85546875" style="12" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="12"/>
+    <col min="9" max="10" width="9.140625" style="12"/>
+    <col min="11" max="12" width="11.42578125" style="12" customWidth="1"/>
+    <col min="13" max="16" width="10.85546875" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="str">
-        <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
-        <v>ProcData</v>
-      </c>
-      <c r="B1" s="18" t="str">
-        <f>Commodities_BASE!B1</f>
-        <v>REGION1</v>
-      </c>
-      <c r="I1" s="38"/>
-    </row>
-    <row r="2" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename",A2))+1,255)</f>
-        <v>ProcData_exportLevels</v>
-      </c>
-      <c r="I2" s="38"/>
-    </row>
-    <row r="3" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I3" s="73"/>
-    </row>
-    <row r="4" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="18"/>
+    </row>
+    <row r="2" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2"/>
+    </row>
+    <row r="3" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
       <c r="G4" s="43"/>
@@ -11984,30 +11065,25 @@
       <c r="T4" s="43"/>
       <c r="U4" s="43"/>
       <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-    </row>
-    <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="AA5" s="43"/>
-    </row>
-    <row r="6" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E6" s="190" t="s">
-        <v>327</v>
+      <c r="V5" s="43"/>
+    </row>
+    <row r="6" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="185" t="s">
+        <v>323</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D7" s="76" t="s">
         <v>80</v>
@@ -12016,67 +11092,52 @@
         <v>81</v>
       </c>
       <c r="F7" s="76" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H7" s="11">
         <v>0</v>
       </c>
-      <c r="I7" s="182">
-        <v>2012</v>
-      </c>
-      <c r="J7" s="182">
-        <v>2013</v>
-      </c>
-      <c r="K7" s="182">
-        <v>2014</v>
-      </c>
-      <c r="L7" s="182">
-        <v>2015</v>
-      </c>
-      <c r="M7" s="182">
-        <v>2016</v>
-      </c>
-      <c r="N7" s="182">
+      <c r="I7" s="177">
         <v>2017</v>
       </c>
-      <c r="O7" s="182">
+      <c r="J7" s="177">
         <v>2018</v>
       </c>
-      <c r="P7" s="182">
+      <c r="K7" s="177">
         <v>2019</v>
       </c>
-      <c r="Q7" s="182">
+      <c r="L7" s="177">
         <v>2020</v>
       </c>
-      <c r="R7" s="182">
+      <c r="M7" s="177">
         <v>2025</v>
       </c>
-      <c r="S7" s="182">
+      <c r="N7" s="177">
         <v>2029</v>
       </c>
-      <c r="T7" s="182">
+      <c r="O7" s="177">
         <v>2030</v>
       </c>
-      <c r="U7" s="182">
+      <c r="P7" s="177">
         <v>2035</v>
       </c>
-      <c r="V7" s="182">
+      <c r="Q7" s="177">
         <v>2039</v>
       </c>
-      <c r="W7" s="182">
+      <c r="R7" s="177">
         <v>2040</v>
       </c>
-      <c r="X7" s="182">
+      <c r="S7" s="177">
         <v>2045</v>
       </c>
-      <c r="Y7" s="182">
+      <c r="T7" s="177">
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="str">
         <f>Processes_BASE!B8</f>
         <v>PEXPGM</v>
@@ -12090,65 +11151,45 @@
         <v>IPGM</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H8" s="12">
         <v>3</v>
       </c>
       <c r="I8" s="12">
-        <f>'Exports summary'!G7</f>
-        <v>124.69952392131813</v>
-      </c>
-      <c r="J8" s="12">
-        <f>'Exports summary'!H7</f>
-        <v>130.71131620168498</v>
-      </c>
-      <c r="K8" s="12">
-        <f>'Exports summary'!I7</f>
-        <v>84.02169487089688</v>
-      </c>
-      <c r="L8" s="12">
-        <f>'Exports summary'!J7</f>
-        <v>133.92546693812523</v>
-      </c>
-      <c r="M8" s="12">
-        <f>'Exports summary'!K7</f>
-        <v>127.71131620168498</v>
-      </c>
-      <c r="N8" s="12">
         <f>'Exports summary'!L7</f>
         <v>125.30659928953824</v>
       </c>
+      <c r="J8" s="12">
+        <v>132.92896377787815</v>
+      </c>
+      <c r="K8" s="12">
+        <v>143.56859209868344</v>
+      </c>
+      <c r="L8" s="12">
+        <v>107.43885384834891</v>
+      </c>
+      <c r="M8" s="12">
+        <f>MEDIAN(J8:K8)</f>
+        <v>138.2487779382808</v>
+      </c>
       <c r="O8" s="12">
-        <v>132.92896377787815</v>
-      </c>
-      <c r="P8" s="12">
-        <v>143.56859209868344</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>107.43885384834891</v>
-      </c>
-      <c r="R8" s="12">
-        <f>MEDIAN(O8:P8)</f>
-        <v>138.2487779382808</v>
-      </c>
-      <c r="T8" s="12">
         <f>Scenarios!AQ25</f>
         <v>140.62042040052222</v>
       </c>
-      <c r="W8" s="12">
-        <f>Scenarios!AR25</f>
-        <v>170.13629509932673</v>
-      </c>
-      <c r="Y8" s="12">
-        <f>Scenarios!AS25</f>
-        <v>526.83014240445232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="12">
+        <f>O8</f>
+        <v>140.62042040052222</v>
+      </c>
+      <c r="T8" s="12">
+        <f>R8</f>
+        <v>140.62042040052222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="str">
         <f>Processes_BASE!B9</f>
         <v>PEXPGMO</v>
@@ -12162,106 +11203,83 @@
         <v>IPGMOP</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H9" s="12">
         <v>3</v>
       </c>
       <c r="I9" s="12">
-        <f>'Exports summary'!G8</f>
-        <v>101.30047607868187</v>
-      </c>
-      <c r="J9" s="12">
-        <f>'Exports summary'!H8</f>
-        <v>105.28868379831502</v>
-      </c>
-      <c r="K9" s="12">
-        <f>'Exports summary'!I8</f>
-        <v>74.97830512910312</v>
-      </c>
-      <c r="L9" s="12">
-        <f>'Exports summary'!J8</f>
-        <v>110.07453306187479</v>
-      </c>
-      <c r="M9" s="12">
-        <f>'Exports summary'!K8</f>
-        <v>105.28868379831502</v>
-      </c>
-      <c r="N9" s="12">
         <f>'Exports summary'!L8</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="Q9" s="12">
-        <f>N9</f>
+      <c r="L9" s="12">
+        <f>I9</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="R9" s="12">
+      <c r="M9" s="12">
         <f>'Exports summary'!M8</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="T9" s="12">
+      <c r="O9" s="12">
         <f>'Exports summary'!N8</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="Y9" s="12">
+      <c r="T9" s="12">
         <f>'Exports summary'!R8</f>
         <v>103.69340071046176</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="str">
         <f>Processes_BASE!B10</f>
-        <v>PEXNH3</v>
+        <v>PEXNH3G</v>
       </c>
       <c r="C10" s="12" t="str">
         <f>Processes_BASE!C10</f>
-        <v>Ammonia to Export Market</v>
+        <v>Green Ammonia to Export Market</v>
       </c>
       <c r="D10" s="12" t="str">
         <f>Commodities_BASE!B11</f>
-        <v>NH3</v>
+        <v>NH3G</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H10" s="12">
         <v>3</v>
       </c>
-      <c r="I10" s="12">
-        <v>2.7578</v>
-      </c>
-      <c r="T10" s="12">
+      <c r="O10" s="12">
         <f>'Exports summary'!N16</f>
         <v>2.7578253706754534</v>
       </c>
-      <c r="U10" s="12" t="str">
+      <c r="P10" s="12" t="str">
         <f>'Exports summary'!O16</f>
         <v/>
       </c>
-      <c r="V10" s="12" t="str">
+      <c r="Q10" s="12" t="str">
         <f>'Exports summary'!P16</f>
         <v/>
       </c>
-      <c r="W10" s="12" t="str">
+      <c r="R10" s="12" t="str">
         <f>'Exports summary'!P16</f>
         <v/>
       </c>
-      <c r="X10" s="12" t="str">
+      <c r="S10" s="12" t="str">
         <f>'Exports summary'!Q16</f>
         <v/>
       </c>
-      <c r="Y10" s="12">
-        <f>'Exports summary'!R16</f>
-        <v>124.155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T10" s="12">
+        <f>O10</f>
+        <v>2.7578253706754534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="str">
         <f>Processes_BASE!B11</f>
         <v>PEXGDRI</v>
@@ -12275,47 +11293,47 @@
         <v>IISHBI</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H11" s="12">
         <v>3</v>
       </c>
-      <c r="R11" s="12" t="str">
+      <c r="M11" s="12" t="str">
         <f>'Exports summary'!M11</f>
         <v/>
       </c>
-      <c r="S11" s="12">
+      <c r="N11" s="12">
         <v>0</v>
       </c>
-      <c r="T11" s="12">
+      <c r="O11" s="12">
         <f>'Exports summary'!N11</f>
         <v>1</v>
       </c>
-      <c r="U11" s="12" t="str">
+      <c r="P11" s="12" t="str">
         <f>'Exports summary'!O11</f>
         <v/>
       </c>
-      <c r="V11" s="12" t="str">
+      <c r="Q11" s="12" t="str">
         <f>'Exports summary'!P11</f>
         <v/>
       </c>
-      <c r="W11" s="12" t="str">
+      <c r="R11" s="12" t="str">
         <f>'Exports summary'!P11</f>
         <v/>
       </c>
-      <c r="X11" s="12" t="str">
+      <c r="S11" s="12" t="str">
         <f>'Exports summary'!Q11</f>
         <v/>
       </c>
-      <c r="Y11" s="12">
-        <f>'Exports summary'!R11</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T11" s="12">
+        <f>O11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="str">
         <f>Processes_BASE!B12</f>
         <v>PEXOKG</v>
@@ -12329,571 +11347,346 @@
         <v>OKG</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H12" s="12">
         <v>3</v>
       </c>
-      <c r="V12" s="12">
+      <c r="I12" s="12">
         <v>0</v>
       </c>
-      <c r="W12" s="12">
-        <f>Scenarios!AF16</f>
-        <v>5.0430461919999994</v>
-      </c>
-      <c r="X12" s="12">
-        <f>W12</f>
-        <v>5.0430461919999994</v>
-      </c>
-      <c r="Y12" s="12">
-        <f>Scenarios!AG16</f>
-        <v>10.086092383999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="str">
+    </row>
+    <row r="13" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="12" t="str">
         <f>Processes_BASE!B13</f>
         <v>PEXHETP</v>
       </c>
-      <c r="C13" s="12" t="str">
+      <c r="C17" s="12" t="str">
         <f>Processes_BASE!C13</f>
         <v>H2 PEM Electrolyser Stack Exports (GW)</v>
       </c>
-      <c r="D13" s="12" t="str">
+      <c r="D17" s="12" t="str">
         <f>Commodities_BASE!B14</f>
         <v>HETP_EX</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="H13" s="12">
+      <c r="F17" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H17" s="12">
         <v>3</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I17" s="12">
         <v>0</v>
       </c>
-      <c r="N13" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>0</v>
-      </c>
-      <c r="T13" s="12">
-        <f>Scenarios!R6</f>
-        <v>0.2</v>
-      </c>
-      <c r="W13" s="12">
-        <f>Scenarios!S6</f>
-        <v>2.3572743999999997</v>
-      </c>
-      <c r="Y13" s="12">
-        <f>Scenarios!T6</f>
-        <v>21.333332000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="str">
+    </row>
+    <row r="18" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="str">
         <f>Processes_BASE!B14</f>
         <v>PEXHFCP</v>
       </c>
-      <c r="C14" s="12" t="str">
+      <c r="C18" s="12" t="str">
         <f>Processes_BASE!C14</f>
         <v>H2 PEM Fuel Cell Exports (GW)</v>
       </c>
-      <c r="D14" s="12" t="str">
+      <c r="D18" s="12" t="str">
         <f>Commodities_BASE!B15</f>
         <v>HFCP_EX</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="H14" s="12">
+      <c r="F18" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H18" s="12">
         <v>3</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I18" s="12">
         <v>0</v>
       </c>
-      <c r="N14" s="12">
+    </row>
+    <row r="19" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="25" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="169" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="169"/>
+      <c r="D25" s="169">
+        <v>2020</v>
+      </c>
+      <c r="E25" s="169">
+        <v>2030</v>
+      </c>
+      <c r="F25" s="170">
+        <v>2040</v>
+      </c>
+      <c r="G25" s="169">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="169" t="str">
+        <f>C8</f>
+        <v>Export PGMs - Pt</v>
+      </c>
+      <c r="C26" s="169" t="s">
+        <v>276</v>
+      </c>
+      <c r="D26" s="171">
+        <f>L8</f>
+        <v>107.43885384834891</v>
+      </c>
+      <c r="E26" s="172">
+        <f>O8</f>
+        <v>140.62042040052222</v>
+      </c>
+      <c r="F26" s="173">
+        <f>R8</f>
+        <v>140.62042040052222</v>
+      </c>
+      <c r="G26" s="171">
+        <f>T8</f>
+        <v>140.62042040052222</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="169" t="str">
+        <f>C9</f>
+        <v>Export PGMs - Others</v>
+      </c>
+      <c r="C27" s="169" t="s">
+        <v>276</v>
+      </c>
+      <c r="D27" s="171">
+        <f>L9</f>
+        <v>103.69340071046176</v>
+      </c>
+      <c r="E27" s="172">
+        <f>O9</f>
+        <v>103.69340071046176</v>
+      </c>
+      <c r="F27" s="173">
+        <f>R9</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="G27" s="171">
+        <f>T9</f>
+        <v>103.69340071046176</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="169" t="str">
+        <f>C10</f>
+        <v>Green Ammonia to Export Market</v>
+      </c>
+      <c r="C28" s="169" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="171">
+        <f>L10</f>
         <v>0</v>
       </c>
-      <c r="R14" s="12">
+      <c r="E28" s="172">
+        <f>O10</f>
+        <v>2.7578253706754534</v>
+      </c>
+      <c r="F28" s="173" t="str">
+        <f>R10</f>
+        <v/>
+      </c>
+      <c r="G28" s="171">
+        <f>T10</f>
+        <v>2.7578253706754534</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="169" t="str">
+        <f>C11</f>
+        <v>Exports of Green Iron</v>
+      </c>
+      <c r="C29" s="169" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="171">
+        <f>L11</f>
         <v>0</v>
       </c>
-      <c r="T14" s="12">
-        <f>Scenarios!U6</f>
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="W14" s="12">
-        <f>Scenarios!V6</f>
-        <v>7.7933579200000009</v>
-      </c>
-      <c r="Y14" s="12">
-        <f>Scenarios!W6</f>
-        <v>309.96310400000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="21" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="169" t="s">
-        <v>292</v>
-      </c>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169">
-        <v>2020</v>
-      </c>
-      <c r="E21" s="169">
-        <v>2030</v>
-      </c>
-      <c r="F21" s="170">
-        <v>2040</v>
-      </c>
-      <c r="G21" s="169">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="169" t="str">
-        <f t="shared" ref="B22:B28" si="0">C8</f>
-        <v>Export PGMs - Pt</v>
-      </c>
-      <c r="C22" s="169" t="s">
-        <v>279</v>
-      </c>
-      <c r="D22" s="171">
-        <f t="shared" ref="D22:D28" si="1">Q8</f>
-        <v>107.43885384834891</v>
-      </c>
-      <c r="E22" s="172">
-        <f t="shared" ref="E22:E28" si="2">T8</f>
-        <v>140.62042040052222</v>
-      </c>
-      <c r="F22" s="173">
-        <f t="shared" ref="F22:F28" si="3">W8</f>
-        <v>170.13629509932673</v>
-      </c>
-      <c r="G22" s="171">
-        <f t="shared" ref="G22:G28" si="4">Y8</f>
-        <v>526.83014240445232</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="169" t="str">
+      <c r="E29" s="172">
+        <f>O11</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="173" t="str">
+        <f>R11</f>
+        <v/>
+      </c>
+      <c r="G29" s="171">
+        <f>T11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="169" t="str">
+        <f>C12</f>
+        <v>Exports of Green JetFuel</v>
+      </c>
+      <c r="C30" s="169" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="171">
+        <f>L12</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="172">
+        <f>O12</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="173">
+        <f>R12</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="171">
+        <f>T12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="169" t="str">
+        <f t="shared" ref="B31:B32" si="0">C17</f>
+        <v>H2 PEM Electrolyser Stack Exports (GW)</v>
+      </c>
+      <c r="C31" s="169" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" s="171">
+        <f t="shared" ref="D31:D32" si="1">L17</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="172">
+        <f t="shared" ref="E31:E32" si="2">O17</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="173">
+        <f t="shared" ref="F31:F32" si="3">R17</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="171">
+        <f t="shared" ref="G31:G32" si="4">T17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="169" t="str">
         <f t="shared" si="0"/>
-        <v>Export PGMs - Others</v>
-      </c>
-      <c r="C23" s="169" t="s">
-        <v>279</v>
-      </c>
-      <c r="D23" s="171">
+        <v>H2 PEM Fuel Cell Exports (GW)</v>
+      </c>
+      <c r="C32" s="169" t="s">
+        <v>234</v>
+      </c>
+      <c r="D32" s="171">
         <f t="shared" si="1"/>
-        <v>103.69340071046176</v>
-      </c>
-      <c r="E23" s="172">
+        <v>0</v>
+      </c>
+      <c r="E32" s="172">
         <f t="shared" si="2"/>
-        <v>103.69340071046176</v>
-      </c>
-      <c r="F23" s="173">
+        <v>0</v>
+      </c>
+      <c r="F32" s="173">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G23" s="171">
+      <c r="G32" s="171">
         <f t="shared" si="4"/>
-        <v>103.69340071046176</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="169" t="str">
-        <f t="shared" si="0"/>
-        <v>Ammonia to Export Market</v>
-      </c>
-      <c r="C24" s="169" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="171">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E24" s="172">
-        <f t="shared" si="2"/>
-        <v>2.7578253706754534</v>
-      </c>
-      <c r="F24" s="173" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G24" s="171">
-        <f t="shared" si="4"/>
-        <v>124.155</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="169" t="str">
-        <f t="shared" si="0"/>
-        <v>Exports of Green Iron</v>
-      </c>
-      <c r="C25" s="169" t="s">
-        <v>200</v>
-      </c>
-      <c r="D25" s="171">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="172">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F25" s="173" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G25" s="171">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="169" t="str">
-        <f t="shared" si="0"/>
-        <v>Exports of Green JetFuel</v>
-      </c>
-      <c r="C26" s="169" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="171">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="172">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="173">
-        <f t="shared" si="3"/>
-        <v>5.0430461919999994</v>
-      </c>
-      <c r="G26" s="171">
-        <f t="shared" si="4"/>
-        <v>10.086092383999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="169" t="str">
-        <f t="shared" si="0"/>
-        <v>H2 PEM Electrolyser Stack Exports (GW)</v>
-      </c>
-      <c r="C27" s="169" t="s">
-        <v>237</v>
-      </c>
-      <c r="D27" s="171">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="172">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="F27" s="173">
-        <f t="shared" si="3"/>
-        <v>2.3572743999999997</v>
-      </c>
-      <c r="G27" s="171">
-        <f t="shared" si="4"/>
-        <v>21.333332000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="169" t="str">
-        <f t="shared" si="0"/>
-        <v>H2 PEM Fuel Cell Exports (GW)</v>
-      </c>
-      <c r="C28" s="169" t="s">
-        <v>237</v>
-      </c>
-      <c r="D28" s="171">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="172">
-        <f t="shared" si="2"/>
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="F28" s="173">
-        <f t="shared" si="3"/>
-        <v>7.7933579200000009</v>
-      </c>
-      <c r="G28" s="171">
-        <f t="shared" si="4"/>
-        <v>309.96310400000004</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F29" s="35"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F30" s="35"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F31" s="35"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="191"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="191"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="191"/>
-      <c r="G32" s="191"/>
-      <c r="H32" s="191"/>
-    </row>
-    <row r="33" spans="3:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J33" s="191"/>
-      <c r="K33" s="191"/>
-    </row>
-    <row r="35" spans="3:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="191"/>
-      <c r="D35" s="191"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="191"/>
-      <c r="G35" s="191"/>
-      <c r="H35" s="191"/>
-      <c r="I35" s="191"/>
-      <c r="J35" s="191"/>
-    </row>
-    <row r="37" spans="3:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="191"/>
-      <c r="D37" s="191"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="191"/>
-      <c r="G37" s="191"/>
-      <c r="H37" s="191"/>
-      <c r="I37" s="191"/>
-      <c r="J37" s="191"/>
-    </row>
-    <row r="39" spans="3:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="191"/>
-      <c r="D39" s="191"/>
-      <c r="E39" s="191"/>
-      <c r="F39" s="191"/>
-      <c r="G39" s="191"/>
-      <c r="H39" s="191"/>
-      <c r="I39" s="191"/>
-      <c r="J39" s="191"/>
-    </row>
-    <row r="41" spans="3:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="191"/>
-      <c r="D41" s="191"/>
-      <c r="E41" s="191"/>
-      <c r="F41" s="191"/>
-      <c r="G41" s="191"/>
-      <c r="H41" s="191"/>
-      <c r="I41" s="191"/>
-      <c r="J41" s="191"/>
+    </row>
+    <row r="33" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="35"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="35"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="35"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="186"/>
+      <c r="C36" s="186"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="186"/>
+      <c r="F36" s="186"/>
+      <c r="G36" s="186"/>
+      <c r="H36" s="186"/>
+    </row>
+    <row r="39" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="186"/>
+      <c r="D39" s="186"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="186"/>
+      <c r="G39" s="186"/>
+      <c r="H39" s="186"/>
+    </row>
+    <row r="41" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="186"/>
+      <c r="D41" s="186"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="186"/>
+      <c r="G41" s="186"/>
+      <c r="H41" s="186"/>
+    </row>
+    <row r="43" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="186"/>
+      <c r="D43" s="186"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="186"/>
+      <c r="G43" s="186"/>
+      <c r="H43" s="186"/>
+    </row>
+    <row r="45" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="186"/>
+      <c r="D45" s="186"/>
+      <c r="E45" s="186"/>
+      <c r="F45" s="186"/>
+      <c r="G45" s="186"/>
+      <c r="H45" s="186"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206852" r:id="rId10" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>419100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206852" r:id="rId10" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206851" r:id="rId12" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206851" r:id="rId12" name="cmdCommOUT"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206850" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206850" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13167,9 +11960,9 @@
         <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
         <v>ProcData</v>
       </c>
-      <c r="B1" s="18" t="str">
+      <c r="B1" s="18">
         <f>Commodities_BASE!B1</f>
-        <v>REGION1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13180,19 +11973,19 @@
     </row>
     <row r="3" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H3" s="73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I3" s="73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J3" s="73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K3" s="73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L3" s="73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M3" s="73"/>
       <c r="N3" s="73"/>
@@ -13204,19 +11997,19 @@
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
       <c r="H4" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13340,11 +12133,11 @@
     <row r="11" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="str">
         <f>Processes_BASE!B10</f>
-        <v>PEXNH3</v>
+        <v>PEXNH3G</v>
       </c>
       <c r="C11" s="12" t="str">
         <f>Processes_BASE!C10</f>
-        <v>Ammonia to Export Market</v>
+        <v>Green Ammonia to Export Market</v>
       </c>
       <c r="D11" s="12" t="str">
         <f>Processes_BASE!D10</f>
@@ -13352,7 +12145,7 @@
       </c>
       <c r="E11" s="12" t="str">
         <f>Commodities_BASE!B11</f>
-        <v>NH3</v>
+        <v>NH3G</v>
       </c>
       <c r="F11" s="12" t="str">
         <f t="shared" ref="F11:F12" si="0">F10</f>
@@ -13604,7 +12397,7 @@
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="125" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D2" s="109"/>
       <c r="F2" s="109"/>
@@ -13617,7 +12410,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="133" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="92" t="str">
         <f>INDEX(Scenarios!$C$4:$C$8,MATCH(B3,Scenarios!$B$4:$B$8,0))</f>
@@ -13634,7 +12427,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="91" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="109"/>
       <c r="D4" s="109"/>
@@ -13645,24 +12438,24 @@
       <c r="K4" s="103"/>
       <c r="L4" s="127"/>
       <c r="M4" s="111" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M5" s="110"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D6" s="91" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F6" s="91" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G6" s="91">
         <v>2012</v>
@@ -13703,13 +12496,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D7" s="125" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F7" s="109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G7" s="103">
         <f>'[1]PGM methodology'!G23</f>
@@ -13762,13 +12555,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D8" s="125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F8" s="109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G8" s="103">
         <f>'[1]PGM methodology'!G24</f>
@@ -13828,7 +12621,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="91" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N10" s="112"/>
       <c r="O10" s="112"/>
@@ -13838,13 +12631,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D11" s="125" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M11" s="135" t="str">
         <f>IF(SUMIFS(Scenarios!D$16:D$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D11)=0,"",SUMIFS(Scenarios!D$16:D$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D11))</f>
@@ -13873,7 +12666,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N12" s="112"/>
       <c r="O12" s="112"/>
@@ -13883,13 +12676,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D13" s="125" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="125" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="125" t="s">
-        <v>175</v>
-      </c>
       <c r="G13" s="125" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M13" s="135" t="str">
         <f>IF(SUMIFS(Scenarios!D$16:D$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D13)=0,"",SUMIFS(Scenarios!D$16:D$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D13))</f>
@@ -13925,7 +12718,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="91" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N15" s="112"/>
       <c r="O15" s="112"/>
@@ -13935,13 +12728,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="125" t="s">
-        <v>177</v>
-      </c>
       <c r="E16" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F16" s="125" t="s">
         <v>115</v>
@@ -14028,7 +12821,7 @@
   <sheetData>
     <row r="2" spans="2:42" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q2" s="158" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="R2" s="44"/>
       <c r="S2" s="44"/>
@@ -14037,35 +12830,35 @@
       <c r="V2" s="44"/>
       <c r="W2" s="44"/>
       <c r="AA2" s="68" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AL2" s="68" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="2:42" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="206" t="s">
-        <v>237</v>
+      <c r="Q3" s="204" t="s">
+        <v>234</v>
       </c>
       <c r="R3" s="151"/>
-      <c r="S3" s="192" t="s">
-        <v>238</v>
-      </c>
-      <c r="T3" s="193"/>
+      <c r="S3" s="190" t="s">
+        <v>235</v>
+      </c>
+      <c r="T3" s="191"/>
       <c r="U3" s="151"/>
-      <c r="V3" s="192" t="s">
-        <v>239</v>
-      </c>
-      <c r="W3" s="193"/>
+      <c r="V3" s="190" t="s">
+        <v>236</v>
+      </c>
+      <c r="W3" s="191"/>
       <c r="AC3" s="163"/>
       <c r="AL3" s="163" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AM3" s="164">
         <v>2030</v>
@@ -14079,12 +12872,12 @@
     </row>
     <row r="4" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="130" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="130" t="s">
         <v>187</v>
       </c>
-      <c r="C4" s="130" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q4" s="207"/>
+      <c r="Q4" s="205"/>
       <c r="R4" s="152">
         <v>2030</v>
       </c>
@@ -14104,7 +12897,7 @@
         <v>2050</v>
       </c>
       <c r="AL4" s="165" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AM4" s="157">
         <v>3.6574278692173281</v>
@@ -14118,13 +12911,13 @@
     </row>
     <row r="5" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="130" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="130" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="130" t="s">
-        <v>190</v>
-      </c>
       <c r="Q5" s="153" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="R5" s="154">
         <v>0.2</v>
@@ -14145,7 +12938,7 @@
         <v>4.4000000000000011E-2</v>
       </c>
       <c r="AL5" s="165" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AM5" s="157">
         <v>3.8273294341222126</v>
@@ -14161,7 +12954,7 @@
       <c r="B6" s="129"/>
       <c r="C6" s="129"/>
       <c r="Q6" s="156" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="R6" s="154">
         <v>0.2</v>
@@ -14182,7 +12975,7 @@
         <v>309.96310400000004</v>
       </c>
       <c r="AL6" s="165" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AM6" s="157">
         <v>59.56614453213281</v>
@@ -14198,7 +12991,7 @@
       <c r="B7" s="129"/>
       <c r="C7" s="129"/>
       <c r="Q7" s="153" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="R7" s="157">
         <v>1.1786371999999998</v>
@@ -14218,43 +13011,43 @@
       <c r="W7" s="157">
         <v>818.30256000000008</v>
       </c>
-      <c r="AL7" s="197" t="s">
-        <v>275</v>
-      </c>
-      <c r="AM7" s="198"/>
-      <c r="AN7" s="198"/>
-      <c r="AO7" s="199"/>
+      <c r="AL7" s="195" t="s">
+        <v>272</v>
+      </c>
+      <c r="AM7" s="196"/>
+      <c r="AN7" s="196"/>
+      <c r="AO7" s="197"/>
     </row>
     <row r="8" spans="2:42" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="129"/>
       <c r="C8" s="129"/>
-      <c r="Q8" s="194" t="s">
-        <v>276</v>
-      </c>
-      <c r="R8" s="195"/>
-      <c r="S8" s="195"/>
-      <c r="T8" s="195"/>
-      <c r="U8" s="195"/>
-      <c r="V8" s="195"/>
-      <c r="W8" s="196"/>
-      <c r="AL8" s="200" t="s">
+      <c r="Q8" s="192" t="s">
         <v>273</v>
       </c>
-      <c r="AM8" s="201"/>
-      <c r="AN8" s="201"/>
-      <c r="AO8" s="202"/>
+      <c r="R8" s="193"/>
+      <c r="S8" s="193"/>
+      <c r="T8" s="193"/>
+      <c r="U8" s="193"/>
+      <c r="V8" s="193"/>
+      <c r="W8" s="194"/>
+      <c r="AL8" s="198" t="s">
+        <v>270</v>
+      </c>
+      <c r="AM8" s="199"/>
+      <c r="AN8" s="199"/>
+      <c r="AO8" s="200"/>
     </row>
     <row r="9" spans="2:42" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AL9" s="203" t="s">
-        <v>274</v>
-      </c>
-      <c r="AM9" s="204"/>
-      <c r="AN9" s="204"/>
-      <c r="AO9" s="205"/>
+      <c r="AL9" s="201" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM9" s="202"/>
+      <c r="AN9" s="202"/>
+      <c r="AO9" s="203"/>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.2">
       <c r="AA14" s="71" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AB14" s="162"/>
       <c r="AC14" s="162"/>
@@ -14273,10 +13066,10 @@
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B15" s="132" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C15" s="132" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="132">
         <v>2025</v>
@@ -14301,7 +13094,7 @@
         <v>0.23304279999999999</v>
       </c>
       <c r="AB15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AF15" s="160">
         <f>0.5*AA15</f>
@@ -14312,18 +13105,18 @@
         <v>0.23304279999999999</v>
       </c>
       <c r="AL15" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AN15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="130" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="131" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="134">
         <f>'Exports summary'!L7</f>
@@ -14350,7 +13143,7 @@
         <v>125.30659928953824</v>
       </c>
       <c r="L16" s="68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA16" s="106">
         <f>AG32/1000</f>
@@ -14360,7 +13153,7 @@
         <v>115</v>
       </c>
       <c r="AC16" s="167" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF16" s="136">
         <f>0.5*AA16</f>
@@ -14382,10 +13175,10 @@
     </row>
     <row r="17" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="130" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C17" s="131" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" s="134">
         <f>'Exports summary'!L8</f>
@@ -14412,10 +13205,10 @@
         <v>103.69340071046176</v>
       </c>
       <c r="L17" s="68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC17" s="68" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AG17" s="136"/>
       <c r="AN17">
@@ -14430,10 +13223,10 @@
     </row>
     <row r="18" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="130" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C18" s="131" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="129"/>
       <c r="E18" s="129"/>
@@ -14444,10 +13237,10 @@
     </row>
     <row r="19" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="130" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C19" s="131" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D19" s="129"/>
       <c r="E19" s="129"/>
@@ -14456,10 +13249,10 @@
       <c r="H19" s="129"/>
       <c r="I19" s="129"/>
       <c r="AA19" s="106" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AC19" s="68" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -14473,15 +13266,15 @@
         <v>2.2110322580645162E-2</v>
       </c>
       <c r="AN19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="130" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" s="131" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D20" s="129"/>
       <c r="E20" s="129"/>
@@ -14491,7 +13284,7 @@
       <c r="I20" s="129"/>
       <c r="AA20" s="106"/>
       <c r="AC20" s="68" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AN20">
         <v>2018</v>
@@ -14505,10 +13298,10 @@
     </row>
     <row r="21" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" s="131" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="134">
         <f>D16</f>
@@ -14535,7 +13328,7 @@
         <v>125.30659928953824</v>
       </c>
       <c r="L21" s="68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN21">
         <v>138.9392308656</v>
@@ -14549,10 +13342,10 @@
     </row>
     <row r="22" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C22" s="131" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" s="134">
         <f>D17</f>
@@ -14579,21 +13372,21 @@
         <v>103.69340071046176</v>
       </c>
       <c r="L22" s="68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AJ22" s="68" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" s="131" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D23" s="129"/>
       <c r="E23" s="129">
@@ -14606,31 +13399,31 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L23" s="68" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AC23" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AD23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AE23" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AF23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AG23" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AM23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AN23">
         <v>2018</v>
@@ -14654,15 +13447,15 @@
         <v>2050</v>
       </c>
       <c r="AU23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C24" s="131" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D24" s="129"/>
       <c r="E24" s="129"/>
@@ -14671,13 +13464,13 @@
       <c r="H24" s="129"/>
       <c r="I24" s="129"/>
       <c r="AB24" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AD24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AF24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AL24" t="str">
         <f>AL4</f>
@@ -14715,10 +13508,10 @@
     </row>
     <row r="25" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C25" s="131" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25" s="129"/>
       <c r="E25" s="137">
@@ -14736,10 +13529,10 @@
         <v>115</v>
       </c>
       <c r="L25" s="68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AA25" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -14804,10 +13597,10 @@
         <v>18.600000000000001</v>
       </c>
       <c r="K26" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AA26" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -14867,7 +13660,7 @@
         <v>100</v>
       </c>
       <c r="AA27" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -14890,7 +13683,7 @@
     </row>
     <row r="28" spans="2:49" x14ac:dyDescent="0.2">
       <c r="AA28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AB28">
         <v>394700</v>
@@ -14913,16 +13706,16 @@
     </row>
     <row r="29" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B29" s="68" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q29" s="68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W29">
         <v>2017</v>
       </c>
       <c r="AA29" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AB29">
         <v>123400</v>
@@ -14945,16 +13738,16 @@
     </row>
     <row r="30" spans="2:49" x14ac:dyDescent="0.2">
       <c r="Q30" s="68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V30" s="68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W30">
         <v>12.14</v>
       </c>
       <c r="AA30" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -14981,16 +13774,16 @@
     </row>
     <row r="31" spans="2:49" x14ac:dyDescent="0.2">
       <c r="Q31" s="68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="V31" s="68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W31">
         <v>3</v>
       </c>
       <c r="AA31" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AB31">
         <v>14500</v>
@@ -15013,7 +13806,7 @@
     </row>
     <row r="32" spans="2:49" x14ac:dyDescent="0.2">
       <c r="AA32" s="161" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AB32" s="161">
         <v>200600</v>
@@ -15036,7 +13829,7 @@
     </row>
     <row r="33" spans="17:33" x14ac:dyDescent="0.2">
       <c r="Q33" s="68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V33" s="68" t="s">
         <v>115</v>
@@ -15046,7 +13839,7 @@
         <v>6.1380000000000008</v>
       </c>
       <c r="AA33" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AB33">
         <v>77900</v>
@@ -15069,14 +13862,14 @@
     </row>
     <row r="34" spans="17:33" x14ac:dyDescent="0.2">
       <c r="V34" s="68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W34">
         <f>[2]EB_Exist!$F$4</f>
         <v>0.33</v>
       </c>
       <c r="AA34" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -15099,7 +13892,7 @@
     </row>
     <row r="35" spans="17:33" x14ac:dyDescent="0.2">
       <c r="Q35" s="68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V35" s="68" t="s">
         <v>115</v>
@@ -15109,7 +13902,7 @@
         <v>11.160000000000002</v>
       </c>
       <c r="AA35" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -15132,13 +13925,13 @@
     </row>
     <row r="36" spans="17:33" x14ac:dyDescent="0.2">
       <c r="V36" s="68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W36">
         <v>0.6</v>
       </c>
       <c r="AA36" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -15161,7 +13954,7 @@
     </row>
     <row r="37" spans="17:33" x14ac:dyDescent="0.2">
       <c r="Q37" s="68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="V37" s="68" t="s">
         <v>115</v>
@@ -15171,7 +13964,7 @@
         <v>2.7578253706754534</v>
       </c>
       <c r="AA37" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AB37">
         <v>27100</v>
@@ -15194,7 +13987,7 @@
     </row>
     <row r="38" spans="17:33" x14ac:dyDescent="0.2">
       <c r="Q38" s="68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="V38" s="68" t="s">
         <v>115</v>
@@ -15204,7 +13997,7 @@
         <v>8.4021746293245485</v>
       </c>
       <c r="AA38" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AB38">
         <v>795000</v>
@@ -15227,13 +14020,13 @@
     </row>
     <row r="39" spans="17:33" x14ac:dyDescent="0.2">
       <c r="Q39" s="68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V39" s="68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AA39" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -15250,7 +14043,7 @@
     </row>
     <row r="40" spans="17:33" x14ac:dyDescent="0.2">
       <c r="AA40" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -15261,10 +14054,10 @@
     </row>
     <row r="41" spans="17:33" x14ac:dyDescent="0.2">
       <c r="Q41" s="68" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V41" s="68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W41">
         <f>10%*(20+56+13)</f>
@@ -15292,7 +14085,7 @@
         <v>124.155</v>
       </c>
       <c r="AA42" s="68" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AE42" s="166">
         <f t="shared" ref="AE42" si="6">AE32/SUM(AE25:AE39)</f>
@@ -15316,15 +14109,15 @@
     </row>
     <row r="46" spans="17:33" x14ac:dyDescent="0.2">
       <c r="Q46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R46" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="17:33" x14ac:dyDescent="0.2">
       <c r="Q47" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="V47">
         <f>500+13+170</f>
@@ -15333,29 +14126,29 @@
     </row>
     <row r="48" spans="17:33" x14ac:dyDescent="0.2">
       <c r="Q48" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="R48">
         <v>22.5</v>
       </c>
       <c r="S48" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="17:22" x14ac:dyDescent="0.2">
       <c r="Q49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R49">
         <v>3340</v>
       </c>
       <c r="S49" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="17:22" x14ac:dyDescent="0.2">
       <c r="Q50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R50">
         <f>R49*3.6</f>
@@ -15371,14 +14164,14 @@
     </row>
     <row r="51" spans="17:22" x14ac:dyDescent="0.2">
       <c r="Q51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R51">
         <f>R50/R48</f>
         <v>534.4</v>
       </c>
       <c r="S51" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="V51">
         <f>5%*V47</f>
@@ -15387,7 +14180,7 @@
     </row>
     <row r="53" spans="17:22" ht="15" x14ac:dyDescent="0.25">
       <c r="Q53" s="168" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -15435,7 +14228,7 @@
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="123" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="93"/>
       <c r="D3" s="93"/>
@@ -15693,7 +14486,7 @@
       <c r="B19" s="96"/>
       <c r="D19"/>
       <c r="E19" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F19">
         <v>254</v>
@@ -15733,7 +14526,7 @@
       <c r="B21" s="96"/>
       <c r="D21"/>
       <c r="E21" s="68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F21"/>
       <c r="G21">
@@ -15758,7 +14551,7 @@
       <c r="B22" s="96"/>
       <c r="D22"/>
       <c r="E22" s="68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F22"/>
       <c r="G22">
@@ -15796,7 +14589,7 @@
       <c r="B24" s="96"/>
       <c r="D24"/>
       <c r="E24" s="68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="124">
@@ -16598,18 +15391,18 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="3:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" s="104">
         <v>44442</v>
@@ -16617,10 +15410,10 @@
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C4" s="68" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E4" s="104">
         <v>45203</v>
@@ -18484,41 +17277,41 @@
   <sheetData>
     <row r="3" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="68" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E6" s="74">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D7" t="str">
-        <f ca="1">Commodities_BASE!A2</f>
-        <v>Commodities_BASE</v>
+      <c r="D7">
+        <f>Commodities_BASE!A2</f>
+        <v>0</v>
       </c>
       <c r="E7" s="75">
         <v>1</v>
@@ -18552,9 +17345,9 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D11" t="str">
-        <f ca="1">ProcData_exportLevels!A2</f>
-        <v>ProcData_exportLevels</v>
+      <c r="D11">
+        <f>ProcData_exportLevels!A2</f>
+        <v>0</v>
       </c>
       <c r="E11" s="75">
         <v>1</v>
@@ -18651,57 +17444,57 @@
       </c>
       <c r="S1" s="119"/>
       <c r="Z1" s="83" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="3:37" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="47"/>
       <c r="D2" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="F2" s="143" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="143" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="143" t="s">
-        <v>134</v>
-      </c>
       <c r="H2" s="144" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I2" s="144" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J2" s="144" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L2" s="65"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="47"/>
       <c r="Q2" s="102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R2" s="146" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S2" s="149" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="T2" s="149" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="U2" s="149" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="V2" s="149"/>
       <c r="W2" s="149"/>
       <c r="Z2" s="84"/>
       <c r="AA2" s="84"/>
       <c r="AB2" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AC2" s="102"/>
       <c r="AD2" s="108"/>
@@ -18713,25 +17506,25 @@
         <v>118</v>
       </c>
       <c r="D3" s="142" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="145" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="143" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="143" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="143" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="143" t="s">
-        <v>139</v>
-      </c>
       <c r="H3" s="144" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I3" s="144" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J3" s="150" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L3" s="65"/>
       <c r="M3" s="66"/>
@@ -18740,26 +17533,26 @@
         <v>117</v>
       </c>
       <c r="Q3" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="R3" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="R3" s="146" t="s">
-        <v>137</v>
-      </c>
       <c r="S3" s="147" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="T3" s="147" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="U3" s="147" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="V3" s="147"/>
       <c r="W3" s="147"/>
       <c r="Z3" s="84"/>
       <c r="AA3" s="84"/>
       <c r="AB3" s="108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC3" s="108"/>
       <c r="AD3" s="108"/>
@@ -18802,7 +17595,7 @@
       <c r="M5" s="57"/>
       <c r="N5" s="53"/>
       <c r="O5" s="139" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P5" s="57"/>
       <c r="Q5" s="53"/>
@@ -18865,13 +17658,13 @@
       <c r="M7" s="81"/>
       <c r="N7" s="58"/>
       <c r="O7" s="85" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P7" s="88"/>
       <c r="Q7" s="89"/>
       <c r="R7" s="57"/>
       <c r="Y7" s="117" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z7" s="46"/>
       <c r="AA7" s="46"/>
@@ -18925,13 +17718,13 @@
       <c r="M9" s="49"/>
       <c r="N9" s="47"/>
       <c r="O9" s="86" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P9" s="47"/>
       <c r="Q9" s="46"/>
       <c r="R9" s="49"/>
       <c r="Y9" s="120" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z9" s="46"/>
       <c r="AA9" s="46"/>
@@ -19007,7 +17800,7 @@
       <c r="M12" s="57"/>
       <c r="N12" s="53"/>
       <c r="O12" s="139" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P12" s="57"/>
       <c r="Q12" s="53"/>
@@ -19044,7 +17837,7 @@
       <c r="W13" s="118"/>
       <c r="X13" s="121"/>
       <c r="Y13" s="116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z13" s="46"/>
       <c r="AA13" s="46"/>
@@ -19095,13 +17888,13 @@
       <c r="M15" s="49"/>
       <c r="N15" s="47"/>
       <c r="O15" s="86" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P15" s="47"/>
       <c r="Q15" s="47"/>
       <c r="R15" s="49"/>
       <c r="Y15" s="117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z15" s="46"/>
       <c r="AA15" s="46"/>
@@ -19185,7 +17978,7 @@
       <c r="W18" s="118"/>
       <c r="X18" s="121"/>
       <c r="Y18" s="116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z18" s="46"/>
       <c r="AA18" s="46"/>
@@ -19239,7 +18032,7 @@
       <c r="Q20" s="46"/>
       <c r="R20" s="49"/>
       <c r="Y20" s="117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z20" s="46"/>
       <c r="AA20" s="46"/>
@@ -19314,14 +18107,14 @@
       <c r="M23" s="57"/>
       <c r="N23" s="140"/>
       <c r="O23" s="139" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P23" s="57"/>
       <c r="Q23" s="53"/>
       <c r="R23" s="57"/>
       <c r="S23" s="118"/>
       <c r="Y23" s="139" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Z23" s="46"/>
       <c r="AA23" s="46"/>
@@ -19345,7 +18138,7 @@
       <c r="M24" s="81"/>
       <c r="N24" s="141"/>
       <c r="O24" s="138" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P24" s="47"/>
       <c r="Q24" s="46"/>
@@ -19383,7 +18176,7 @@
       <c r="W25" s="118"/>
       <c r="X25" s="121"/>
       <c r="Y25" s="148" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Z25" s="46"/>
       <c r="AA25" s="46"/>
@@ -19407,7 +18200,7 @@
       <c r="M26" s="49"/>
       <c r="N26" s="47"/>
       <c r="O26" s="118" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P26" s="47"/>
       <c r="Q26" s="46"/>
@@ -19482,7 +18275,7 @@
       <c r="M29" s="49"/>
       <c r="N29" s="47"/>
       <c r="O29" s="139" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P29" s="57"/>
       <c r="Q29" s="53"/>
@@ -19490,7 +18283,7 @@
       <c r="S29" s="118"/>
       <c r="T29" s="118"/>
       <c r="Y29" s="139" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Z29" s="46"/>
       <c r="AA29" s="46"/>
@@ -19544,13 +18337,13 @@
       <c r="M31" s="49"/>
       <c r="N31" s="47"/>
       <c r="O31" s="148" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P31" s="47"/>
       <c r="Q31" s="46"/>
       <c r="R31" s="49"/>
       <c r="Y31" s="148" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Z31" s="46"/>
       <c r="AA31" s="46"/>
@@ -19598,7 +18391,7 @@
       <c r="M33" s="49"/>
       <c r="N33" s="47"/>
       <c r="O33" s="139" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P33" s="57"/>
       <c r="Q33" s="53"/>
@@ -19607,7 +18400,7 @@
       <c r="T33" s="118"/>
       <c r="U33" s="118"/>
       <c r="Y33" s="139" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Z33" s="46"/>
       <c r="AA33" s="46"/>
@@ -19660,13 +18453,13 @@
       <c r="M35" s="49"/>
       <c r="N35" s="47"/>
       <c r="O35" s="148" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P35" s="47"/>
       <c r="Q35" s="46"/>
       <c r="R35" s="49"/>
       <c r="Y35" s="148" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Z35" s="46"/>
       <c r="AA35" s="46"/>
@@ -21572,14 +20365,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -21594,56 +20387,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="str">
-        <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
-        <v>Commodities</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>120</v>
-      </c>
+      <c r="A1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename",A2))+1,255)</f>
-        <v>Commodities_BASE</v>
-      </c>
+      <c r="A2"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="178" t="s">
-        <v>297</v>
-      </c>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="179" t="s">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="178" t="s">
+      <c r="C7" s="188" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="178" t="s">
+      <c r="D7" s="188" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="178" t="s">
-        <v>306</v>
-      </c>
-      <c r="F7" s="178" t="s">
-        <v>307</v>
-      </c>
-      <c r="G7" s="178" t="s">
-        <v>308</v>
-      </c>
-      <c r="H7" s="178" t="s">
-        <v>309</v>
+      <c r="E7" s="188" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7" s="188" t="s">
+        <v>303</v>
+      </c>
+      <c r="G7" s="188" t="s">
+        <v>304</v>
+      </c>
+      <c r="H7" s="188" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -21656,14 +20438,14 @@
         <f>RES!Q3</f>
         <v>Industry - PGMs - Platinum</v>
       </c>
-      <c r="D8" s="180" t="s">
+      <c r="D8" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="177" t="s">
+      <c r="E8" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="177"/>
-      <c r="G8" s="181"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="176"/>
     </row>
     <row r="9" spans="1:8" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="37"/>
@@ -21675,60 +20457,60 @@
         <f>RES!R3</f>
         <v>Industry - PGMs - Other PGMs</v>
       </c>
-      <c r="D9" s="180" t="s">
+      <c r="D9" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="177" t="s">
+      <c r="E9" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="177"/>
+      <c r="F9" s="174"/>
     </row>
     <row r="10" spans="1:8" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="37"/>
       <c r="B10" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="180" t="s">
+      <c r="D10" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="177" t="s">
+      <c r="E10" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="177"/>
+      <c r="F10" s="174"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="37"/>
       <c r="B11" s="37" t="s">
-        <v>182</v>
+        <v>327</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="180" t="s">
+        <v>326</v>
+      </c>
+      <c r="D11" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="177" t="s">
+      <c r="E11" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="177"/>
+      <c r="F11" s="174"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="180" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="177" t="s">
+      <c r="E12" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="177"/>
+      <c r="F12" s="174"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="18" t="str">
@@ -21739,13 +20521,13 @@
         <f>RES!S3</f>
         <v>Oil Green JetFuel</v>
       </c>
-      <c r="D13" s="180" t="s">
+      <c r="D13" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="177" t="s">
+      <c r="E13" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="177"/>
+      <c r="F13" s="174"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="18" t="str">
@@ -21756,13 +20538,13 @@
         <f>RES!T3</f>
         <v>Electrolyser H2 PEM  Capacity (GW) Export</v>
       </c>
-      <c r="D14" s="180" t="s">
+      <c r="D14" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="177" t="s">
+      <c r="E14" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="177"/>
+      <c r="F14" s="174"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="18" t="str">
@@ -21773,13 +20555,13 @@
         <f>RES!U3</f>
         <v>Fuel Cell H2 PEM  Capacity (GW)</v>
       </c>
-      <c r="D15" s="180" t="s">
+      <c r="D15" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="177" t="s">
+      <c r="E15" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="177"/>
+      <c r="F15" s="174"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:B7">
@@ -21788,85 +20570,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="125955" r:id="rId4" name="cmdCommUnit">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="125955" r:id="rId4" name="cmdCommUnit"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="125954" r:id="rId6" name="cmdCheckCommoditiesSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="125954" r:id="rId6" name="cmdCheckCommoditiesSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
 </worksheet>
 </file>
 

--- a/SubRes_TMPL/SubRES_GreenExports.xlsx
+++ b/SubRes_TMPL/SubRES_GreenExports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\SubRes_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC122AB-60C1-438A-9D5A-9264869DC455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B2E4E6-3BD7-4CBB-9807-D3C6E794D91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7065" yWindow="-18360" windowWidth="23460" windowHeight="14985" tabRatio="796" firstSheet="2" activeTab="6" xr2:uid="{E4E4DEB2-CFB1-442C-9FC5-D51D154627BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="796" firstSheet="2" activeTab="6" xr2:uid="{E4E4DEB2-CFB1-442C-9FC5-D51D154627BD}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="332">
   <si>
     <t>Comment</t>
   </si>
@@ -1424,6 +1424,12 @@
   </si>
   <si>
     <t>Green Ammonia to Export Market</t>
+  </si>
+  <si>
+    <t>IISHDRI</t>
+  </si>
+  <si>
+    <t>Green DR Iron</t>
   </si>
 </sst>
 </file>
@@ -2857,7 +2863,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2917,7 +2923,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3005,7 +3011,7 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3049,7 +3055,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10145,52 +10151,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12289" r:id="rId4" name="cmdUpdate">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId5">
+        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12289" r:id="rId4" name="cmdUpdate"/>
+        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet"/>
+        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10220,52 +10226,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId11">
+        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon"/>
+        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="12289" r:id="rId12" name="cmdUpdate">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon"/>
+        <control shapeId="12289" r:id="rId12" name="cmdUpdate"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10322,44 +10328,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet">
+        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -10367,7 +10348,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1"/>
+        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90113" r:id="rId6" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90113" r:id="rId6" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10397,44 +10403,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90113" r:id="rId10" name="cmdAddParameter">
+        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90113" r:id="rId10" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -10442,7 +10423,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2"/>
+        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11290,7 +11296,7 @@
       </c>
       <c r="D11" s="12" t="str">
         <f>Commodities_BASE!B12</f>
-        <v>IISHBI</v>
+        <v>IISHDRI</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>324</v>
@@ -11753,18 +11759,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -11773,57 +11804,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113666" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113666" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113667" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113667" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11853,43 +11859,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="113667" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -11898,32 +11879,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="113667" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="113666" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="113666" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12171,7 +12177,7 @@
       </c>
       <c r="E12" s="12" t="str">
         <f>Commodities_BASE!B12</f>
-        <v>IISHBI</v>
+        <v>IISHDRI</v>
       </c>
       <c r="F12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12190,18 +12196,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233473" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="233479" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="233479" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="233478" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -12210,57 +12241,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233473" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="233478" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233474" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="233477" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233474" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="233475" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="233475" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="233477" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12290,43 +12296,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233477" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="233475" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="233477" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="233478" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -12335,32 +12316,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233478" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="233475" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233479" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="233474" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233479" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="233474" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="233473" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="233473" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14925,8 +14931,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102407" r:id="rId8" name="cmdCommName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102407" r:id="rId8" name="cmdCommName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102403" r:id="rId14" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102403" r:id="rId14" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102402" r:id="rId16" name="cmdProcName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102402" r:id="rId16" name="cmdProcName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -14945,182 +15126,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102402" r:id="rId6" name="cmdProcName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102402" r:id="rId6" name="cmdProcName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102403" r:id="rId8" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102403" r:id="rId8" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102407" r:id="rId14" name="cmdCommName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102407" r:id="rId14" name="cmdCommName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2"/>
+        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15269,8 +15275,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet">
+        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -15289,82 +15370,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets"/>
+        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15491,8 +15497,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -15511,232 +15742,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15800,8 +15806,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet">
+        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -15820,182 +16001,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6"/>
+        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16070,8 +16076,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears">
+        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -16090,232 +16321,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16402,8 +16408,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears">
+        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -16422,232 +16653,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet"/>
+        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16724,8 +16730,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet">
+        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -16744,182 +16925,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6"/>
+        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17005,8 +17011,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears">
+        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -17025,232 +17256,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20181,8 +20187,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet">
+        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -20201,32 +20232,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets"/>
+        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20287,18 +20293,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="71683" r:id="rId4" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -20307,7 +20313,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="71683" r:id="rId4" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20337,18 +20343,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71683" r:id="rId8" name="cmdCommUnit">
+        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -20357,7 +20363,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71683" r:id="rId8" name="cmdCommUnit"/>
+        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20372,7 +20378,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -20499,10 +20505,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
-        <v>183</v>
+        <v>330</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>171</v>
+        <v>331</v>
       </c>
       <c r="D12" s="175" t="s">
         <v>115</v>
@@ -20639,18 +20645,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80899" r:id="rId4" name="cmdProcUnits">
+        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -20659,7 +20665,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80899" r:id="rId4" name="cmdProcUnits"/>
+        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20689,18 +20695,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="80899" r:id="rId8" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -20709,7 +20715,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="80899" r:id="rId8" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20785,18 +20791,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -20805,7 +20811,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets"/>
+        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20835,18 +20841,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -20855,7 +20861,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit"/>
+        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
